--- a/documents/03_ファイル構成一覧表_worldMap.xlsx
+++ b/documents/03_ファイル構成一覧表_worldMap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F293399F-2E2A-44BA-9DE0-09C3AD2CCF89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7090267-6FA9-4949-BC5A-DBDE56799766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="94">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -141,23 +141,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>login.js</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>list.js</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>common.css</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>login.css</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>list.css</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -187,26 +171,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログイン画面用js</t>
-    <rPh sb="4" eb="7">
-      <t>ガメンヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>一覧表画面用js</t>
-    <rPh sb="0" eb="2">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヒョウ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ガメンヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>全画面共通css</t>
     <rPh sb="0" eb="3">
       <t>ゼンガメン</t>
@@ -217,26 +181,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログイン画面用css</t>
-    <rPh sb="4" eb="7">
-      <t>ガメンヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>一覧表示画面用css</t>
-    <rPh sb="0" eb="2">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>ガメンヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>担当者Ａ</t>
     <rPh sb="0" eb="3">
       <t>タントウシャ</t>
@@ -609,6 +553,70 @@
   </si>
   <si>
     <t>edit.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>java</t>
+  </si>
+  <si>
+    <t>Note_detail.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Search.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Search_result.jsava</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>User_detail.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お気に入りボタン用</t>
+    <rPh sb="1" eb="2">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Favorites_button.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダウンロード用js</t>
+    <rPh sb="6" eb="7">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>download.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お気に入りボタン用js</t>
+    <rPh sb="1" eb="2">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>favorites_button.js</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1003,17 +1011,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:G41"/>
+  <dimension ref="B2:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="58.875" customWidth="1"/>
     <col min="7" max="7" width="16.125" customWidth="1"/>
   </cols>
@@ -1056,12 +1064,12 @@
         <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B21" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B22" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1071,10 +1079,10 @@
         <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -1090,10 +1098,10 @@
         <v>5</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -1109,10 +1117,10 @@
         <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -1128,10 +1136,10 @@
         <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -1147,10 +1155,10 @@
         <v>5</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G8" s="1"/>
     </row>
@@ -1166,10 +1174,10 @@
         <v>5</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -1185,10 +1193,10 @@
         <v>5</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -1203,9 +1211,11 @@
       <c r="D11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="F11" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -1220,9 +1230,11 @@
       <c r="D12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="F12" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G12" s="1"/>
     </row>
@@ -1231,11 +1243,17 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="F13" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -1244,11 +1262,17 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="F14" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -1258,16 +1282,16 @@
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -1283,10 +1307,10 @@
         <v>9</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -1302,10 +1326,10 @@
         <v>9</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="G17" s="1"/>
     </row>
@@ -1318,13 +1342,13 @@
         <v>2</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="G18" s="1"/>
     </row>
@@ -1340,10 +1364,10 @@
         <v>10</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -1359,10 +1383,10 @@
         <v>10</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="G20" s="1"/>
     </row>
@@ -1378,48 +1402,48 @@
         <v>10</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B22" s="1">
-        <f t="shared" ref="B22:B41" si="1">ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B23:B40" si="1">ROW()-2</f>
         <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G23" s="1"/>
     </row>
@@ -1429,16 +1453,16 @@
         <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G24" s="1"/>
     </row>
@@ -1448,16 +1472,16 @@
         <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G25" s="1"/>
     </row>
@@ -1467,16 +1491,16 @@
         <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="G26" s="1"/>
     </row>
@@ -1486,16 +1510,16 @@
         <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="G27" s="1"/>
     </row>
@@ -1505,16 +1529,16 @@
         <v>26</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="G28" s="1"/>
     </row>
@@ -1524,16 +1548,16 @@
         <v>27</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G29" s="1"/>
     </row>
@@ -1543,16 +1567,16 @@
         <v>28</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G30" s="1"/>
     </row>
@@ -1562,16 +1586,16 @@
         <v>29</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G31" s="1"/>
     </row>
@@ -1581,16 +1605,16 @@
         <v>30</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G32" s="1"/>
     </row>
@@ -1600,16 +1624,16 @@
         <v>31</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G33" s="1"/>
     </row>
@@ -1619,16 +1643,16 @@
         <v>32</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G34" s="1"/>
     </row>
@@ -1638,35 +1662,35 @@
         <v>33</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="1">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>28</v>
+        <v>15</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="G36" s="1"/>
     </row>
@@ -1676,16 +1700,16 @@
         <v>35</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G37" s="1"/>
     </row>
@@ -1695,16 +1719,16 @@
         <v>36</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="G38" s="1"/>
     </row>
@@ -1714,16 +1738,16 @@
         <v>37</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="G39" s="1"/>
     </row>
@@ -1733,37 +1757,18 @@
         <v>38</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B41" s="1">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G41" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1773,15 +1778,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -1952,6 +1948,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1959,14 +1964,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1981,6 +1978,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
